--- a/salario_raca_natal.xlsx
+++ b/salario_raca_natal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D32CC-7140-4526-930B-3481E0282ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677BCFB-16B0-4780-8F84-07DCC3B03318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>PRETA</t>
   </si>
   <si>
-    <t>ANO</t>
+    <t>RAÇA</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
